--- a/working arrangements/总体工作安排.xlsx
+++ b/working arrangements/总体工作安排.xlsx
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -490,7 +490,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,24 +511,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,16 +548,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,22 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -588,7 +588,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,15 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,11 +633,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -697,7 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,43 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,19 +745,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,25 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +793,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,31 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,6 +1154,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1176,16 +1185,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,16 +1215,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,8 +1232,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,165 +1248,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2598,8 +2598,8 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3109,7 +3109,9 @@
       <c r="A28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="38">
+        <v>1111</v>
+      </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>

--- a/working arrangements/总体工作安排.xlsx
+++ b/working arrangements/总体工作安排.xlsx
@@ -490,7 +490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,9 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,8 +539,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +575,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,14 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -587,15 +601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,14 +617,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -625,16 +625,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +697,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +745,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,103 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,31 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +829,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,15 +1154,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1180,6 +1171,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,6 +1225,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1228,176 +1248,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3110,7 +3110,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="38">
-        <v>1111</v>
+        <v>222</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>

--- a/working arrangements/总体工作安排.xlsx
+++ b/working arrangements/总体工作安排.xlsx
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -492,12 +492,134 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,128 +635,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,19 +697,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,25 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +775,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,13 +817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,49 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,8 +1154,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,41 +1171,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,8 +1193,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,156 +1237,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3109,9 +3109,7 @@
       <c r="A28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="38">
-        <v>222</v>
-      </c>
+      <c r="B28" s="38"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
